--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Cxcr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H2">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I2">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J2">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01295133333333333</v>
+        <v>0.01989833333333333</v>
       </c>
       <c r="N2">
-        <v>0.038854</v>
+        <v>0.059695</v>
       </c>
       <c r="O2">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="P2">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="Q2">
-        <v>1.943158874374222</v>
+        <v>3.381038381538334</v>
       </c>
       <c r="R2">
-        <v>17.488429869368</v>
+        <v>30.429345433845</v>
       </c>
       <c r="S2">
-        <v>0.1590950983690326</v>
+        <v>0.2422903597114736</v>
       </c>
       <c r="T2">
-        <v>0.1590950983690325</v>
+        <v>0.2422903597114736</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H3">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I3">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J3">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.021853</v>
       </c>
       <c r="O3">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="P3">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="Q3">
-        <v>1.092908088786222</v>
+        <v>1.237722284140333</v>
       </c>
       <c r="R3">
-        <v>9.836172799076</v>
+        <v>11.139500557263</v>
       </c>
       <c r="S3">
-        <v>0.08948126794302952</v>
+        <v>0.08869706392117986</v>
       </c>
       <c r="T3">
-        <v>0.08948126794302952</v>
+        <v>0.08869706392117989</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H4">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I4">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J4">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01356833333333333</v>
+        <v>0.009290999999999999</v>
       </c>
       <c r="N4">
-        <v>0.040705</v>
+        <v>0.027873</v>
       </c>
       <c r="O4">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="P4">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="Q4">
-        <v>2.035730735095556</v>
+        <v>1.578686369187</v>
       </c>
       <c r="R4">
-        <v>18.32157661586</v>
+        <v>14.208177322683</v>
       </c>
       <c r="S4">
-        <v>0.1666743701835454</v>
+        <v>0.1131310695407974</v>
       </c>
       <c r="T4">
-        <v>0.1666743701835453</v>
+        <v>0.1131310695407975</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>205.146729</v>
       </c>
       <c r="I5">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J5">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01295133333333333</v>
+        <v>0.01989833333333333</v>
       </c>
       <c r="N5">
-        <v>0.038854</v>
+        <v>0.059695</v>
       </c>
       <c r="O5">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="P5">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="Q5">
-        <v>0.8856412231740001</v>
+        <v>1.360692665295</v>
       </c>
       <c r="R5">
-        <v>7.970771008566</v>
+        <v>12.246233987655</v>
       </c>
       <c r="S5">
-        <v>0.0725114036627159</v>
+        <v>0.09750930871748562</v>
       </c>
       <c r="T5">
-        <v>0.07251140366271588</v>
+        <v>0.09750930871748562</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>0.021853</v>
       </c>
       <c r="O6">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="P6">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="Q6">
         <v>0.4981190520930001</v>
@@ -821,10 +821,10 @@
         <v>4.483071468837</v>
       </c>
       <c r="S6">
-        <v>0.04078323220881584</v>
+        <v>0.03569596990373086</v>
       </c>
       <c r="T6">
-        <v>0.04078323220881584</v>
+        <v>0.03569596990373086</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.01356833333333333</v>
+        <v>0.009290999999999999</v>
       </c>
       <c r="N7">
-        <v>0.040705</v>
+        <v>0.027873</v>
       </c>
       <c r="O7">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="P7">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="Q7">
-        <v>0.927833067105</v>
+        <v>0.6353394197129999</v>
       </c>
       <c r="R7">
-        <v>8.350497603945</v>
+        <v>5.718054777417</v>
       </c>
       <c r="S7">
-        <v>0.07596583842309287</v>
+        <v>0.04552939043274104</v>
       </c>
       <c r="T7">
-        <v>0.07596583842309286</v>
+        <v>0.04552939043274105</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H8">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I8">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J8">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.01295133333333333</v>
+        <v>0.01989833333333333</v>
       </c>
       <c r="N8">
-        <v>0.038854</v>
+        <v>0.059695</v>
       </c>
       <c r="O8">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="P8">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="Q8">
-        <v>0.4941962002533334</v>
+        <v>1.060076425543333</v>
       </c>
       <c r="R8">
-        <v>4.44776580228</v>
+        <v>9.540687829889999</v>
       </c>
       <c r="S8">
-        <v>0.04046205080283333</v>
+        <v>0.07596669114110595</v>
       </c>
       <c r="T8">
-        <v>0.04046205080283332</v>
+        <v>0.07596669114110596</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H9">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I9">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J9">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,22 +995,22 @@
         <v>0.021853</v>
       </c>
       <c r="O9">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="P9">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="Q9">
-        <v>0.2779551542733334</v>
+        <v>0.3880701922673333</v>
       </c>
       <c r="R9">
-        <v>2.50159638846</v>
+        <v>3.492631730406</v>
       </c>
       <c r="S9">
-        <v>0.02275743028245011</v>
+        <v>0.02780970100521967</v>
       </c>
       <c r="T9">
-        <v>0.02275743028245011</v>
+        <v>0.02780970100521968</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H10">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.01356833333333333</v>
+        <v>0.009290999999999999</v>
       </c>
       <c r="N10">
-        <v>0.040705</v>
+        <v>0.027873</v>
       </c>
       <c r="O10">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="P10">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="Q10">
-        <v>0.5177396492333334</v>
+        <v>0.4949746244939999</v>
       </c>
       <c r="R10">
-        <v>4.6596568431</v>
+        <v>4.454771620446</v>
       </c>
       <c r="S10">
-        <v>0.04238965815435555</v>
+        <v>0.03547063543305211</v>
       </c>
       <c r="T10">
-        <v>0.04238965815435555</v>
+        <v>0.03547063543305213</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H11">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I11">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J11">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1113,28 +1113,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01295133333333333</v>
+        <v>0.01989833333333333</v>
       </c>
       <c r="N11">
-        <v>0.038854</v>
+        <v>0.059695</v>
       </c>
       <c r="O11">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="P11">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="Q11">
-        <v>1.35648697241</v>
+        <v>1.811112127928889</v>
       </c>
       <c r="R11">
-        <v>12.20838275169</v>
+        <v>16.30000915136</v>
       </c>
       <c r="S11">
-        <v>0.1110616487194749</v>
+        <v>0.1297870533945394</v>
       </c>
       <c r="T11">
-        <v>0.1110616487194749</v>
+        <v>0.1297870533945394</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H12">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I12">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J12">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,22 +1181,22 @@
         <v>0.021853</v>
       </c>
       <c r="O12">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="P12">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="Q12">
-        <v>0.7629410049950002</v>
+        <v>0.6630075103715556</v>
       </c>
       <c r="R12">
-        <v>6.866469044955001</v>
+        <v>5.967067593344</v>
       </c>
       <c r="S12">
-        <v>0.06246538862064873</v>
+        <v>0.04751212794758137</v>
       </c>
       <c r="T12">
-        <v>0.06246538862064872</v>
+        <v>0.04751212794758138</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H13">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I13">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J13">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01356833333333333</v>
+        <v>0.009290999999999999</v>
       </c>
       <c r="N13">
-        <v>0.040705</v>
+        <v>0.027873</v>
       </c>
       <c r="O13">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="P13">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="Q13">
-        <v>1.421109852575</v>
+        <v>0.8456508642559999</v>
       </c>
       <c r="R13">
-        <v>12.789988673175</v>
+        <v>7.610857778303999</v>
       </c>
       <c r="S13">
-        <v>0.1163526126300053</v>
+        <v>0.060600628851093</v>
       </c>
       <c r="T13">
-        <v>0.1163526126300053</v>
+        <v>0.06060062885109302</v>
       </c>
     </row>
   </sheetData>
